--- a/biology/Zoologie/Calinaga_buddha/Calinaga_buddha.xlsx
+++ b/biology/Zoologie/Calinaga_buddha/Calinaga_buddha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calinaga buddha est un lépidoptère (papillon) diurne appartenant à la famille des Nymphalidae, à la sous-famille des Calinaginae et au genre Calinaga.
 </t>
@@ -511,84 +523,92 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Calinaga buddha a été nommé par Frederic Moore en 1845[1].
-Noms vernaculaires
-Calinaga buddha se nomme Freak en anglais[1].
-Sous-espèces
-Calinaga buddha avalokita Fruhstorfer, 1914 ;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calinaga buddha a été nommé par Frederic Moore en 1845.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Calinaga_buddha</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calinaga_buddha</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calinaga buddha se nomme Freak en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Calinaga_buddha</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calinaga_buddha</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Calinaga buddha avalokita Fruhstorfer, 1914 ;
 Calinaga buddha bedoci Le Cerf ;
 Calinaga buddha brahma Butler, 1885 ;
 Calinaga buddha formosana Fruhstorfer, 1908 ;
-Calinaga buddha nebulosa Oberthür [1].
+Calinaga buddha nebulosa Oberthür .
 Sont maintenant considérées comme des espèces à part entière:
 Calinaga aborica Tytler, 1915 ; présent dans le nord de la Birmanie.
-Calinaga gautama Moore, 1896 ; présent au Bhoutan[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Calinaga_buddha</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Calinaga_buddha</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un très grand papillon, sans dimorphisme sexuel, de couleur extrêmement variable entre le noir, le marron foncé à clair et l'orange.  Il est orné de taches claires blanches, crème ou jaunes, allongées entre les nervures très développées dans la partie basale.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Calinaga_buddha</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Calinaga_buddha</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vole en une seule génération qui apparaît au printemps et vole de mars à juillet[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des mûriers, particulièrement Morus australis et Morus alba[1].
-</t>
+Calinaga gautama Moore, 1896 ; présent au Bhoutan.</t>
         </is>
       </c>
     </row>
@@ -613,14 +633,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Asie du Sud-Est dans le Sikkim, l'Assam et le nord de la Birmanie[1].
-Biotope
-Il réside entre 1 000 et 1 350 mètres[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un très grand papillon, sans dimorphisme sexuel, de couleur extrêmement variable entre le noir, le marron foncé à clair et l'orange.  Il est orné de taches claires blanches, crème ou jaunes, allongées entre les nervures très développées dans la partie basale.
 </t>
         </is>
       </c>
@@ -646,12 +666,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Statut</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Least Concern (LC)[2].
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une seule génération qui apparaît au printemps et vole de mars à juillet.
 </t>
         </is>
       </c>
@@ -677,10 +699,152 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des mûriers, particulièrement Morus australis et Morus alba.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Calinaga_buddha</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calinaga_buddha</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Asie du Sud-Est dans le Sikkim, l'Assam et le nord de la Birmanie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Calinaga_buddha</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calinaga_buddha</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside entre 1 000 et 1 350 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Calinaga_buddha</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calinaga_buddha</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Statut</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Least Concern (LC).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Calinaga_buddha</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calinaga_buddha</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
